--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -42,6 +42,42 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>FATROXIM 550 MG 30TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>118.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>Friday, 15 August, 2025 12:06 AM</t>
@@ -254,10 +290,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +302,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +710,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>208.80000000000001</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +820,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -62,15 +62,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -80,7 +95,19 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 12:06 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 2:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -775,38 +802,104 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>208.80000000000001</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>236.80000000000001</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>34</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +918,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -59,18 +77,12 @@
     <t>118.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -92,22 +104,16 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Friday, 15 August, 2025 2:20 PM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 3:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -798,7 +804,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -807,31 +813,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -840,14 +846,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -864,42 +870,75 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>236.80000000000001</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>33</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c t="s" r="Q11" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>258</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
         <v>34</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -928,10 +967,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -104,16 +104,28 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TETANUS ANTITOXIN 1500 I U 10 AMPOULES</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Friday, 15 August, 2025 3:04 PM</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 3:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -886,13 +898,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -903,42 +915,75 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>258</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>372</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1017,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 3:05 PM</t>
+    <t>Friday, 15 August, 2025 3:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -104,15 +116,6 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>TETANUS ANTITOXIN 1500 I U 10 AMPOULES</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -125,7 +128,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 3:06 PM</t>
+    <t>Friday, 15 August, 2025 4:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +885,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -898,7 +901,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -908,14 +911,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -924,7 +927,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -941,25 +944,25 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="P13" s="13">
-        <v>372</v>
+        <v>287.74000000000001</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c t="s" r="A14" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -967,13 +970,13 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c t="s" r="G14" s="15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c t="s" r="K14" s="17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 4:19 PM</t>
+    <t>Friday, 15 August, 2025 4:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 4:31 PM</t>
+    <t>Friday, 15 August, 2025 4:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -128,7 +140,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 4:44 PM</t>
+    <t>Friday, 15 August, 2025 4:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,7 +946,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -944,49 +956,82 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>287.74000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>332.74000000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>43</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>44</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>45</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1070,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -80,42 +80,60 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -134,13 +152,22 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>Friday, 15 August, 2025 4:50 PM</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -897,7 +924,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -906,14 +933,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -946,21 +973,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -972,66 +999,165 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-      <c t="s" r="Q13" s="12">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>332.74000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>19</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>43</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>466.24000000000001</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1075,10 +1201,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -119,10 +128,13 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
   </si>
   <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
@@ -167,7 +179,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 6:54 PM</t>
+    <t>Friday, 15 August, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -847,18 +859,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -867,31 +879,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -900,14 +912,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -917,14 +929,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -933,14 +945,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -950,14 +962,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -973,7 +985,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1006,7 +1018,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1016,14 +1028,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1032,28 +1044,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1065,31 +1077,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1098,66 +1110,132 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>466.24000000000001</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>22</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>22</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>54</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>1085.24</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1294,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 6:58 PM</t>
+    <t>Friday, 15 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CIKATRO LOTION</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>360.00</t>
   </si>
   <si>
@@ -116,6 +125,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -146,6 +167,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>حمام كريم فاتيكا 450جم</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -164,10 +194,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -179,7 +209,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 7:02 PM</t>
+    <t>Friday, 15 August, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -859,15 +889,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -879,7 +909,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -892,7 +922,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -903,7 +933,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -919,24 +949,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -945,14 +975,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -962,14 +992,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -978,14 +1008,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -995,14 +1025,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1018,7 +1048,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1028,14 +1058,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,14 +1074,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1061,11 +1091,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1077,14 +1107,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1094,14 +1124,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1110,20 +1140,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1150,13 +1180,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1167,7 +1197,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1176,66 +1206,165 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>1085.24</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>56</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>19</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>64</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>1281.02</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>66</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>67</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>68</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1304,10 +1433,25 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 7:05 PM</t>
+    <t>Friday, 15 August, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>550.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -206,10 +218,10 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Friday, 15 August, 2025 7:06 PM</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1192,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1190,11 +1202,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1206,31 +1218,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1239,14 +1251,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1279,7 +1291,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1289,14 +1301,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1329,42 +1341,75 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>1281.02</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>66</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>67</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1319.02</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1448,10 +1493,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
@@ -221,7 +230,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 7:36 PM</t>
+    <t>Friday, 15 August, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1126,7 +1135,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,14 +1145,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1152,14 +1161,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1169,11 +1178,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1192,7 +1201,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1202,14 +1211,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1218,14 +1227,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1258,13 +1267,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1275,7 +1284,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1291,7 +1300,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1301,11 +1310,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1317,14 +1326,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1341,7 +1350,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1350,7 +1359,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1367,49 +1376,82 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>69</v>
       </c>
-      <c t="s" r="Q22" s="12">
-        <v>50</v>
-      </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1319.02</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>70</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>71</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1343.02</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1498,10 +1540,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 7:39 PM</t>
+    <t>Friday, 15 August, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
@@ -174,9 +186,6 @@
   </si>
   <si>
     <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
   </si>
   <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
@@ -1168,7 +1177,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1178,14 +1187,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,14 +1203,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,11 +1220,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1227,14 +1236,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1251,7 +1260,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1267,7 +1276,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1277,11 +1286,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1300,13 +1309,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1317,7 +1326,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1333,7 +1342,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1343,11 +1352,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1359,14 +1368,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1383,7 +1392,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1392,7 +1401,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1409,49 +1418,82 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
       </c>
-      <c t="s" r="Q23" s="12">
-        <v>53</v>
-      </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1343.02</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>73</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>74</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1366.02</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1587,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>CIKATRO LOTION</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -170,6 +179,24 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -185,9 +212,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -239,7 +263,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 7:42 PM</t>
+    <t>Friday, 15 August, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -913,24 +937,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -939,20 +963,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -963,7 +987,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -979,13 +1003,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1012,24 +1036,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1038,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,14 +1079,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1071,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,14 +1112,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1104,14 +1128,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1128,7 +1152,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1144,7 +1168,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1177,7 +1201,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,14 +1211,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1203,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1220,14 +1244,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1236,14 +1260,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,14 +1277,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1290,7 +1314,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1302,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1348,7 +1372,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1359,7 +1383,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1381,18 +1405,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,31 +1425,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1434,66 +1458,165 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>74</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>22</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>75</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1366.02</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>77</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>22</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>78</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>22</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>82</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1538.02</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>84</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>85</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>86</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1715,25 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 7:51 PM</t>
+    <t>Friday, 15 August, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>118.8000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -221,6 +233,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
     <t>حمام كريم فاتيكا 450جم</t>
   </si>
   <si>
@@ -263,7 +284,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 7:52 PM</t>
+    <t>Friday, 15 August, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1119,7 +1140,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1128,14 +1149,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1166,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1168,7 +1189,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1178,14 +1199,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,14 +1215,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1232,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1248,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1267,7 +1288,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1277,14 +1298,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1314,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,11 +1331,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1333,7 +1354,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1364,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,14 +1380,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,14 +1397,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,14 +1413,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1409,14 +1430,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1425,14 +1446,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,11 +1463,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1458,31 +1479,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,20 +1512,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1531,7 +1552,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1548,7 +1569,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1581,42 +1602,108 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1538.02</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>84</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>22</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>85</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>22</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1806.9400000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1730,10 +1817,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WHITON CREAM 60 GM</t>
   </si>
   <si>
@@ -269,10 +278,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -284,7 +293,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:04 PM</t>
+    <t>Friday, 15 August, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1528,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1536,7 +1545,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1552,13 +1561,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1585,7 +1594,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1595,11 +1604,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1644,7 +1653,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1661,49 +1670,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>90</v>
       </c>
-      <c t="s" r="Q29" s="12">
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>22</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>70</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1806.9400000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>91</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>92</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>93</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1825.77</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>94</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>95</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>96</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1827,10 +1869,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>128.00</t>
   </si>
   <si>
@@ -71,7 +86,19 @@
     <t>19.2000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CIKATRO LOTION</t>
@@ -95,6 +122,42 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -119,6 +182,24 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -131,6 +212,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -170,9 +260,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -185,18 +272,24 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -206,9 +299,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -221,9 +311,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -263,25 +350,19 @@
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -293,7 +374,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:10 PM</t>
+    <t>Friday, 15 August, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -967,7 +1048,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -977,14 +1058,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -993,20 +1074,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1033,7 +1114,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1043,14 +1124,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1059,31 +1140,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1092,14 +1173,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1109,14 +1190,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1125,14 +1206,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1142,14 +1223,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1158,14 +1239,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1175,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1215,7 +1296,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1231,13 +1312,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1264,7 +1345,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1274,14 +1355,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1290,14 +1371,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1307,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1323,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1340,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1356,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1373,14 +1454,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1389,14 +1470,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1406,14 +1487,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1422,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1439,14 +1520,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,14 +1536,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1472,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1488,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1505,14 +1586,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1538,14 +1619,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1554,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,11 +1652,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1587,31 +1668,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1620,28 +1701,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1653,31 +1734,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1686,66 +1767,396 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1825.77</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>94</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>95</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>96</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>97</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>99</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>29</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>43</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>101</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>64</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>104</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>21</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>31</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>110</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>112</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>38</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>31</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>61</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>113</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>31</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>114</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>115</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>31</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>116</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>18</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>31</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>119</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2200.3200000000002</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>121</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>122</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>123</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1874,10 +2285,60 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -146,6 +158,30 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -182,6 +218,24 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -233,9 +287,6 @@
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -266,12 +317,18 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
@@ -362,7 +419,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -371,10 +428,13 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Friday, 15 August, 2025 8:14 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1081,7 +1141,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1091,11 +1151,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1107,14 +1167,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1131,7 +1191,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1140,31 +1200,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1186,15 +1246,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1206,14 +1266,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1263,7 +1323,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1312,21 +1372,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1338,14 +1398,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1415,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1378,7 +1438,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,14 +1448,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1404,31 +1464,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1497,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1514,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1470,7 +1530,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1487,11 +1547,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1503,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,14 +1580,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1543,7 +1603,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1553,14 +1613,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1569,14 +1629,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1586,11 +1646,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1602,14 +1662,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1619,14 +1679,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1635,14 +1695,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1656,10 +1716,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1728,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,14 +1745,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,14 +1761,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1778,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1734,14 +1794,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,11 +1811,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1767,14 +1827,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,11 +1844,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1800,14 +1860,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1877,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1893,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,14 +1910,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1926,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,14 +1943,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1899,14 +1959,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,11 +1976,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1932,14 +1992,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +2009,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1965,31 +2025,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,28 +2058,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2031,31 +2091,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2064,31 +2124,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2097,66 +2157,297 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2200.3200000000002</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>121</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>122</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>123</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>13</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>126</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>128</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>35</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>129</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>42</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>35</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>79</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>35</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>133</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>35</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>135</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>18</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>35</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>138</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>139</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>140</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>35</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>66</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2432.3449999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>141</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>142</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>143</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2335,10 +2626,45 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -434,7 +443,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:28 PM</t>
+    <t>Friday, 15 August, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,13 +1480,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1488,7 +1497,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1504,24 +1513,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,14 +1556,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1669,7 +1678,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1695,14 +1704,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1719,7 +1728,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1735,7 +1744,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,11 +1787,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>50</v>
@@ -1794,14 +1803,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,11 +1952,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2016,7 +2025,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2098,7 +2107,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2141,11 +2150,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2164,7 +2173,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2197,7 +2206,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2214,7 +2223,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2230,13 +2239,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2263,7 +2272,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2322,7 +2331,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,10 +2385,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2405,49 +2414,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>142</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>143</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>35</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>69</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2432.3449999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>141</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>142</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>143</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2466.3449999999998</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>144</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>145</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>146</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2661,10 +2703,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:29 PM</t>
+    <t>Friday, 15 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:12</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -443,7 +455,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:32 PM</t>
+    <t>Friday, 15 August, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,21 +1525,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1539,20 +1551,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1563,7 +1575,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,14 +1584,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1596,7 +1608,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,7 +1617,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1622,11 +1634,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1638,7 +1650,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1655,11 +1667,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,11 +1700,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1704,14 +1716,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1728,7 +1740,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1744,7 +1756,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1794,7 +1806,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1843,7 +1855,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,14 +1865,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,11 +1931,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,11 +1997,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2030,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2041,7 +2053,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2117,14 +2129,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2133,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,11 +2195,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,14 +2261,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,28 +2277,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2315,11 +2327,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2348,14 +2360,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,7 +2376,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2397,7 +2409,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2447,49 +2459,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q48" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>146</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>147</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>35</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>73</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2466.3449999999998</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>144</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>145</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>146</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2477.8649999999998</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>148</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>149</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>150</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2708,10 +2753,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -176,22 +188,16 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:3</t>
+    <t>9:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -272,160 +278,208 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 450جم</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>17:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WHITON CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>249.0000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 450جم</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -434,28 +488,34 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
+    <t>60.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>Friday, 15 August, 2025 8:42 PM</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1146,7 +1206,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1155,14 +1215,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1172,14 +1232,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1195,7 +1255,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1205,11 +1265,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1221,14 +1281,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1245,7 +1305,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1254,31 +1314,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1294,24 +1354,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1320,14 +1380,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1344,7 +1404,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1377,7 +1437,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1469,11 +1529,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1485,14 +1545,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1502,14 +1562,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1518,14 +1578,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,14 +1595,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1551,28 +1611,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1584,31 +1644,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1617,14 +1677,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1634,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1650,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1667,14 +1727,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1683,14 +1743,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1700,14 +1760,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1716,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,14 +1793,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1749,14 +1809,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1766,14 +1826,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1782,14 +1842,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1799,14 +1859,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1815,14 +1875,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1832,14 +1892,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1848,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1881,31 +1941,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1991,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2013,14 +2073,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2090,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,14 +2139,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,14 +2156,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,11 +2189,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2145,14 +2205,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,11 +2255,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2211,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,14 +2288,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2244,14 +2304,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2261,11 +2321,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2277,14 +2337,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2354,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,31 +2370,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,31 +2403,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,20 +2436,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2397,10 +2457,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2409,31 +2469,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2442,31 +2502,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2475,66 +2535,264 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2477.8649999999998</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>148</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>149</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>150</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>46</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>39</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>88</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>22</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>39</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>155</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>22</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>39</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>158</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>161</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>22</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>39</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>162</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>22</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>39</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>144</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>166</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>139</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>39</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>75</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2844.585</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>168</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>169</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>170</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2758,10 +3016,40 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WHITON CREAM 60 GM</t>
@@ -488,10 +488,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -515,7 +515,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:45 PM</t>
+    <t>Friday, 15 August, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2377,7 +2377,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2394,7 +2394,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2762,7 +2762,7 @@
     </row>
     <row r="56" ht="25.5" customHeight="1">
       <c r="P56" s="13">
-        <v>2844.585</v>
+        <v>2863.415</v>
       </c>
       <c r="Q56" s="13"/>
     </row>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -101,12 +101,21 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -161,9 +170,6 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -182,6 +188,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -197,9 +212,6 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -263,6 +275,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -335,15 +356,15 @@
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -488,10 +509,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -515,7 +536,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:50 PM</t>
+    <t>Friday, 15 August, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1288,7 +1309,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1298,11 +1319,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1314,14 +1335,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1331,14 +1352,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1347,31 +1368,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1380,7 +1401,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1393,7 +1414,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1420,7 +1441,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1430,11 +1451,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1446,14 +1467,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1463,14 +1484,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1479,14 +1500,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1496,11 +1517,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1512,14 +1533,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1529,11 +1550,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1552,7 +1573,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1562,14 +1583,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1578,14 +1599,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1595,14 +1616,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1611,14 +1632,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1628,14 +1649,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1644,31 +1665,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1677,14 +1698,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,14 +1715,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1710,31 +1731,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1764,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1760,14 +1781,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1776,7 +1797,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1793,11 +1814,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1809,7 +1830,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1826,14 +1847,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1842,14 +1863,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,14 +1880,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1875,7 +1896,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1892,11 +1913,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1908,14 +1929,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,14 +1946,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1941,31 +1962,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2012,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2028,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2045,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,28 +2061,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2073,14 +2094,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2094,10 +2115,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,14 +2127,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,11 +2144,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,14 +2177,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2179,7 +2200,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2210,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2226,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,14 +2243,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2238,14 +2259,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,14 +2276,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,14 +2292,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2288,11 +2309,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2321,11 +2342,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2337,14 +2358,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,14 +2375,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,14 +2391,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,14 +2408,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,7 +2424,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2420,11 +2441,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2474,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,31 +2490,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2502,31 +2523,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,28 +2556,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2568,31 +2589,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,31 +2622,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,31 +2655,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>160</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,31 +2688,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,31 +2721,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2733,66 +2754,198 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>22</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>42</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>165</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>167</v>
       </c>
-      <c t="s" r="Q55" s="12">
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>168</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>22</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>42</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>169</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>37</v>
       </c>
     </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2863.415</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>168</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>169</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>170</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>171</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>22</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>42</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>151</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>173</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>146</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>42</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>79</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2990.0949999999998</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>175</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>176</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>177</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3046,10 +3199,30 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -536,7 +536,10 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:53 PM</t>
+    <t xml:space="preserve">مشط خشب </t>
+  </si>
+  <si>
+    <t>Friday, 15 August, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2914,38 +2917,71 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2990.0949999999998</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>175</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>22</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>42</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>151</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3005.0949999999998</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>176</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>177</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>178</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3219,10 +3255,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -200,174 +200,177 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:12</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>FATROXIM 550 MG 30TAB</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>118.8000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>5:12</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>FATROXIM 550 MG 30TAB</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>118.8000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -383,6 +386,15 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -470,13 +482,13 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>46:0</t>
+    <t>45:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
   </si>
   <si>
     <t>حمام كريم فاتيكا 450جم</t>
@@ -509,10 +521,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>15:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -521,25 +530,25 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>5:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
   </si>
   <si>
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:56 PM</t>
+    <t>Friday, 15 August, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,7 +1618,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1623,10 +1632,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2236,7 +2245,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,7 +2255,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2262,7 +2271,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2279,11 +2288,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2352,7 +2361,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2368,7 +2377,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2616,7 +2625,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2646,10 +2655,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2698,7 +2707,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2741,11 +2750,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2790,7 +2799,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,10 +2853,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2929,7 +2938,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2939,49 +2948,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>22</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>42</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>155</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3005.0949999999998</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>176</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>177</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>178</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3274.0949999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>179</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>180</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>181</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3260,10 +3302,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>-27.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -122,9 +137,6 @@
     <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>53.00</t>
   </si>
   <si>
@@ -473,12 +485,15 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -548,7 +563,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 8:58 PM</t>
+    <t>Friday, 15 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1369,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1364,14 +1379,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1380,14 +1395,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1397,14 +1412,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1420,24 +1435,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1459,15 +1474,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1479,14 +1494,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1519,7 +1534,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1529,14 +1544,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1545,14 +1560,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1585,7 +1600,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1595,11 +1610,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1628,14 +1643,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1734,7 +1749,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1750,21 +1765,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1776,20 +1791,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1800,7 +1815,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1833,7 +1848,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1842,7 +1857,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1859,11 +1874,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1941,7 +1956,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1974,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1998,7 +2013,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2014,7 +2029,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2073,31 +2088,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2106,20 +2121,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2130,7 +2145,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2146,7 +2161,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,14 +2270,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2321,11 +2336,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2394,7 +2409,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2410,7 +2425,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,11 +2567,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2658,7 +2673,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2680,7 +2695,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2688,10 +2703,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,31 +2715,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2733,31 +2748,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2766,28 +2781,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2799,31 +2814,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2832,7 +2847,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2845,18 +2860,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2865,7 +2880,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2878,18 +2893,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2898,7 +2913,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2911,18 +2926,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2931,31 +2946,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>98</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2964,66 +2979,99 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>22</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>46</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>159</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3274.0949999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>179</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>180</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>181</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3262.0949999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>184</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>185</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>186</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3307,10 +3355,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>35.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -2623,7 +2629,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2633,14 +2639,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2672,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>44</v>
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,14 +2804,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,7 +2837,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2854,7 +2860,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,7 +2886,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,7 +2919,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2946,7 +2952,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2996,14 +3002,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>102</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3029,49 +3035,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>22</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>46</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>161</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>135</v>
       </c>
-      <c t="s" r="Q62" s="12">
+      <c t="s" r="Q63" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3262.0949999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>184</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>185</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3293.0949999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>186</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>187</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>188</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3360,10 +3399,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -569,7 +578,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:02 PM</t>
+    <t>Friday, 15 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1615,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,11 +1625,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1672,7 +1681,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1738,7 +1747,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1771,7 +1780,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,20 +1806,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1837,24 +1846,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1936,7 +1945,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1953,7 +1962,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2019,7 +2028,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2035,7 +2044,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2085,7 +2094,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2101,7 +2110,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2118,7 +2127,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2134,13 +2143,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2151,7 +2160,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2167,24 +2176,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2481,7 +2490,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,11 +2615,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2629,7 +2638,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2695,7 +2704,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2712,7 +2721,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,31 +2763,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>44</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,11 +2813,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>44</v>
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2844,7 +2853,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2860,7 +2869,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,11 +2879,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,10 +2949,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2973,7 +2982,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>180</v>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>102</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3068,49 +3077,82 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>22</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>46</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>164</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3293.0949999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>186</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>187</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>188</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3391.105</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>189</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>190</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>191</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3404,10 +3446,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -521,6 +521,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حمام كريم فاتيكا 450جم</t>
   </si>
   <si>
@@ -578,7 +590,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:03 PM</t>
+    <t>Friday, 15 August, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2869,7 +2881,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,11 +2891,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2912,11 +2924,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,7 +2973,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2994,7 +3006,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3011,14 +3023,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,7 +3039,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>105</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3093,14 +3105,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3110,49 +3122,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>22</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>46</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>164</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>138</v>
       </c>
-      <c t="s" r="Q64" s="12">
+      <c t="s" r="Q65" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3391.105</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>189</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>190</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>191</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3401.105</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>193</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>194</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>195</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3451,10 +3496,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>106.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CIKATRO LOTION</t>
   </si>
   <si>
@@ -269,24 +278,24 @@
     <t>0:3</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>19.9200</t>
   </si>
   <si>
     <t>0:5</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
   </si>
   <si>
@@ -590,7 +599,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:04 PM</t>
+    <t>Friday, 15 August, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1314,7 +1323,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1323,14 +1332,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1340,14 +1349,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1413,7 +1422,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1495,24 +1504,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1521,20 +1530,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1545,7 +1554,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1561,7 +1570,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1571,14 +1580,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1611,7 +1620,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1627,7 +1636,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1660,7 +1669,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1670,11 +1679,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1726,7 +1735,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1769,14 +1778,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1825,7 +1834,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1851,20 +1860,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1891,24 +1900,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,31 +2190,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2247,31 +2256,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2363,11 +2372,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,11 +2570,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2808,31 +2817,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2841,31 +2850,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2874,31 +2883,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,31 +2916,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,31 +2949,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2973,31 +2982,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,31 +3015,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3039,31 +3048,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3072,28 +3081,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>187</v>
@@ -3105,31 +3114,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>105</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3138,66 +3147,132 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3401.105</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>192</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>193</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>49</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>23</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c t="s" r="Q66" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>195</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>26</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>49</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>167</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3471.105</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>196</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>197</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>198</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3501,10 +3576,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -263,6 +272,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -599,7 +617,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:05 PM</t>
+    <t>Friday, 15 August, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,7 +1621,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1613,14 +1631,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1629,14 +1647,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1653,7 +1671,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1669,7 +1687,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1702,7 +1720,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1712,11 +1730,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1728,14 +1746,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1768,7 +1786,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1778,14 +1796,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1811,14 +1829,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1834,7 +1852,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1844,14 +1862,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1867,7 +1885,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1877,14 +1895,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1893,20 +1911,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1933,7 +1951,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1943,14 +1961,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1959,31 +1977,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2009,14 +2027,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2025,14 +2043,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2042,11 +2060,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2131,7 +2149,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2148,7 +2166,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2164,7 +2182,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2174,14 +2192,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2190,7 +2208,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2207,14 +2225,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2247,7 +2265,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2263,13 +2281,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2280,7 +2298,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2296,7 +2314,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2306,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2322,31 +2340,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2405,11 +2423,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2438,11 +2456,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2471,11 +2489,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2494,7 +2512,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2553,14 +2571,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,11 +2654,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,11 +2687,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,11 +2720,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2801,14 +2819,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,11 +2852,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -2857,7 +2875,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,14 +2885,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,31 +2901,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,31 +2934,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,14 +2984,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3032,11 +3050,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3098,14 +3116,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>187</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,10 +3153,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>108</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3213,7 +3231,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3230,49 +3248,115 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>198</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>199</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>49</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>23</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>26</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>49</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>173</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3471.105</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>196</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>197</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>198</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3613.0050000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>202</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>203</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>204</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3586,10 +3670,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -188,390 +188,396 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:12</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FATROXIM 550 MG 30TAB</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>118.8000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 450جم</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>5:12</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FATROXIM 550 MG 30TAB</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>118.8000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>17:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WHITON CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>249.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 450جم</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -617,7 +623,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:08 PM</t>
+    <t>Friday, 15 August, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1671,7 +1677,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2974,24 +2980,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,11 +3023,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,11 +3089,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3099,14 +3105,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,11 +3122,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,7 +3171,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,7 +3204,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3215,14 +3221,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,7 +3237,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3248,14 +3254,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,14 +3287,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,49 +3320,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>203</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>26</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>49</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>174</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>147</v>
       </c>
-      <c t="s" r="Q69" s="12">
+      <c t="s" r="Q70" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3613.0050000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>202</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>203</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3708.0050000000001</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
         <v>204</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>205</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>206</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3680,10 +3719,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -236,6 +236,18 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -416,9 +428,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -596,7 +605,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -623,7 +632,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:09 PM</t>
+    <t>Friday, 15 August, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1825,7 +1834,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1983,31 +1992,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2016,31 +2025,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2099,11 +2108,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2115,7 +2124,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2214,7 +2223,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2271,7 +2280,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2287,7 +2296,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2346,31 +2355,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,20 +2388,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2403,7 +2412,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2594,11 +2603,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2700,7 +2709,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2716,7 +2725,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,11 +2834,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2848,7 +2857,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2931,7 +2940,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,31 +3015,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3056,11 +3065,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,14 +3098,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3105,14 +3114,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3145,7 +3154,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3155,7 +3164,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3178,7 +3187,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,10 +3234,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,7 +3267,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>198</v>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3353,49 +3362,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>206</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>26</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>49</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>177</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3708.0050000000001</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>204</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>205</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>206</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3727.0050000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>207</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>208</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>209</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3724,10 +3766,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -284,6 +284,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
   </si>
   <si>
@@ -461,9 +479,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -575,9 +590,6 @@
     <t>حمام كريم فاتيكا 450جم</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -632,7 +644,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:10 PM</t>
+    <t>Friday, 15 August, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,13 +2044,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2049,7 +2061,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2065,24 +2077,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2131,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,11 +2153,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2157,7 +2169,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2197,7 +2209,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2214,7 +2226,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2263,7 +2275,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2280,7 +2292,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2296,7 +2308,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2322,7 +2334,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2379,7 +2391,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2395,13 +2407,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2412,7 +2424,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2428,7 +2440,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,11 +2450,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>69</v>
@@ -2454,31 +2466,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,11 +2549,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,11 +2582,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,7 +2615,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,11 +2780,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2923,7 +2935,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2940,7 +2952,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2956,7 +2968,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,14 +3011,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,7 +3027,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3032,11 +3044,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3061,7 +3073,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3072,7 +3084,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3088,24 +3100,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,11 +3209,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3263,14 +3275,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>198</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,7 +3291,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>201</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3352,7 +3364,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>205</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>118</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3395,49 +3407,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>207</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>208</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>49</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>23</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>26</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>49</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>182</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3727.0050000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>207</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>208</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>209</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3880.0050000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>211</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>212</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>213</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3771,10 +3849,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -74,6 +74,12 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -218,9 +224,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -284,6 +287,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -518,6 +530,9 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -566,13 +581,13 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>45:0</t>
+    <t>44:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
+    <t>60.0000</t>
   </si>
   <si>
     <t>حلق</t>
@@ -626,7 +641,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -635,16 +650,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
+    <t>96.0000</t>
   </si>
   <si>
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:41 PM</t>
+    <t>Friday, 15 August, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1361,14 +1373,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1377,14 +1389,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1394,14 +1406,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1410,14 +1422,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1427,14 +1439,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1443,14 +1455,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1460,11 +1472,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1476,14 +1488,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1493,14 +1505,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1509,14 +1521,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1526,14 +1538,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1549,7 +1561,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1559,14 +1571,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1575,31 +1587,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1608,31 +1620,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1641,14 +1653,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1658,14 +1670,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1674,14 +1686,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1691,14 +1703,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1724,14 +1736,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1740,14 +1752,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1757,11 +1769,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1823,11 +1835,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1839,14 +1851,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1856,11 +1868,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1922,14 +1934,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1988,14 +2000,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2070,31 +2082,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2136,31 +2148,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2209,7 +2221,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2226,7 +2238,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2242,7 +2254,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2351,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,14 +2396,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2466,31 +2478,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,14 +2528,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2532,31 +2544,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2627,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,11 +2660,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,14 +2693,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2697,14 +2709,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,14 +2726,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2737,7 +2749,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2754,7 +2766,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2770,7 +2782,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,11 +2858,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2869,7 +2881,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2886,7 +2898,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2902,7 +2914,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2935,7 +2947,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2952,7 +2964,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2968,7 +2980,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,14 +3023,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,31 +3138,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,31 +3171,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,31 +3204,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,31 +3237,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,31 +3270,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,31 +3303,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,31 +3336,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,31 +3369,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>205</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3390,31 +3402,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3423,31 +3435,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>124</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3456,66 +3468,165 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3880.0050000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>211</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>28</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>51</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>187</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>212</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>172</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>51</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>25</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>213</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>28</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>51</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>187</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4063.5949999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>215</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>216</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>217</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3859,10 +3970,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -194,13 +194,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>CORASORE 150MG 20 TAB</t>
@@ -311,9 +314,6 @@
     <t>99.00</t>
   </si>
   <si>
-    <t>99.0000</t>
-  </si>
-  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -395,9 +395,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -491,6 +488,12 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -632,7 +635,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -656,7 +662,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:42 PM</t>
+    <t>Friday, 15 August, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1743,7 +1749,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1752,7 +1758,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1769,11 +1775,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1785,7 +1791,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1802,11 +1808,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1818,7 +1824,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1835,11 +1841,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1851,7 +1857,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1868,11 +1874,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1884,14 +1890,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1901,11 +1907,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1917,7 +1923,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1938,7 +1944,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>37</v>
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1967,11 +1973,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1983,7 +1989,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2000,11 +2006,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,11 +2039,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2049,7 +2055,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2066,11 +2072,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2082,7 +2088,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2099,11 +2105,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2115,7 +2121,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2132,11 +2138,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>31</v>
@@ -2452,7 +2458,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,11 +2468,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>105</v>
@@ -2478,7 +2484,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2495,11 +2501,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2511,7 +2517,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2544,7 +2550,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2561,11 +2567,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,11 +2600,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2643,7 +2649,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2660,11 +2666,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2676,14 +2682,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2697,7 +2703,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2709,14 +2715,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,11 +2732,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2742,7 +2748,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2759,11 +2765,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2775,7 +2781,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,11 +2831,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>105</v>
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2858,7 +2864,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2891,14 +2897,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,14 +2930,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2947,7 +2953,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2957,14 +2963,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,14 +2996,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3013,7 +3019,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,11 +3029,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,14 +3062,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3089,14 +3095,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3112,7 +3118,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,14 +3161,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3221,14 +3227,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3244,24 +3250,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,14 +3276,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,14 +3293,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,14 +3309,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,14 +3326,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3336,14 +3342,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,11 +3359,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3386,11 +3392,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3402,14 +3408,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3435,7 +3441,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>207</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3468,7 +3474,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3501,7 +3507,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3551,14 +3557,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>41</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3574,7 +3580,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3584,49 +3590,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>216</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>28</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>51</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>188</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>114</v>
       </c>
-      <c t="s" r="Q76" s="12">
+      <c t="s" r="Q77" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4063.5949999999998</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>215</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>216</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4111.4650000000001</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>217</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>218</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>219</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3985,10 +4024,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -662,7 +662,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:44 PM</t>
+    <t>Friday, 15 August, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -257,7 +257,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>47.8800</t>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -431,9 +434,6 @@
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WHITON CREAM 60 GM</t>
@@ -647,7 +647,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>7:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:45 PM</t>
+    <t>Friday, 15 August, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1930,7 +1930,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1947,7 +1947,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1956,14 +1956,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -2022,14 +2022,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2039,11 +2039,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2187,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2208,10 +2208,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2270,11 +2270,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2468,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2534,11 +2534,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2567,11 +2567,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2583,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2821,7 +2821,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2838,7 +2838,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3095,11 +3095,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3151,7 +3151,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3168,7 +3168,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3528,10 +3528,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>173</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>173</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="78" ht="24.75" customHeight="1">
       <c r="P78" s="13">
-        <v>4111.4650000000001</v>
+        <v>4143.1750000000002</v>
       </c>
       <c r="Q78" s="13"/>
     </row>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -212,252 +212,255 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:12</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>FATROXIM 550 MG 30TAB</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>118.8000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>5:12</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>FATROXIM 550 MG 30TAB</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>118.8000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
@@ -506,6 +509,15 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -662,7 +674,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:51 PM</t>
+    <t>Friday, 15 August, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1777,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1782,7 +1794,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2736,7 +2748,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2748,7 +2760,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2814,7 +2826,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2831,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>106</v>
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2864,7 +2876,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2880,7 +2892,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2901,7 +2913,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2913,7 +2925,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2946,7 +2958,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2967,7 +2979,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3234,7 +3246,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3250,7 +3262,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3276,31 +3288,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,7 +3345,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,7 +3378,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3382,7 +3394,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3392,11 +3404,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>31</v>
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3474,7 +3486,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>209</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3528,10 +3540,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3540,7 +3552,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3623,49 +3635,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>28</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>51</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>192</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>115</v>
       </c>
-      <c t="s" r="Q77" s="12">
+      <c t="s" r="Q78" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4143.1750000000002</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>217</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>218</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>219</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4207.7550000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>221</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>222</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>223</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4029,10 +4074,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -65,489 +65,534 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>-27.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>CIKATRO LOTION</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:12</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>FATROXIM 550 MG 30TAB</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>118.8000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>87.00</t>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
     <t>28.7100</t>
   </si>
   <si>
-    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>-27.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>CIKATRO LOTION</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>5:12</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>FATROXIM 550 MG 30TAB</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>118.8000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>17:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -599,9 +644,6 @@
     <t>44:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -674,7 +716,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 9:54 PM</t>
+    <t>Friday, 15 August, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1365,7 +1407,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1374,14 +1416,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1414,7 +1456,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1424,14 +1466,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1440,14 +1482,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1457,14 +1499,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1473,14 +1515,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1490,11 +1532,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1506,14 +1548,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1523,11 +1565,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1539,14 +1581,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1556,14 +1598,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1572,14 +1614,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1589,11 +1631,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1605,14 +1647,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1622,14 +1664,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1638,31 +1680,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1671,14 +1713,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1688,14 +1730,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1704,14 +1746,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1721,11 +1763,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1737,14 +1779,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1754,14 +1796,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1770,14 +1812,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,14 +1829,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1803,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,14 +1862,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1836,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1853,11 +1895,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1869,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,11 +1928,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1902,14 +1944,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,11 +1961,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1935,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,14 +1994,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1968,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2027,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2001,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2022,10 +2064,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,11 +2126,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2100,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,14 +2175,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2173,13 +2215,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2187,10 +2229,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2199,31 +2241,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,14 +2291,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2265,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2338,7 +2380,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2423,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2463,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2480,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,14 +2538,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2555,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,31 +2604,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,14 +2654,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2668,24 +2710,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2769,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2786,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2819,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,7 +2842,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2833,7 +2875,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2850,7 +2892,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2866,7 +2908,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2918,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2909,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3050,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3024,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,11 +3149,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3123,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,7 +3231,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3206,14 +3248,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,14 +3281,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,14 +3314,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3347,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,31 +3363,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3361,24 +3403,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3460,24 +3502,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,31 +3528,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3552,31 +3594,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3585,31 +3627,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3625,24 +3667,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3651,66 +3693,231 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4207.7550000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>221</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>222</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>223</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>224</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>27</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>50</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>225</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>228</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>27</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>50</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>229</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>27</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>50</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>207</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>232</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>191</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>50</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>24</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>234</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>27</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>50</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>207</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4551.4650000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>235</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>236</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>237</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4079,10 +4286,35 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -260,6 +260,12 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -561,6 +567,9 @@
   </si>
   <si>
     <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TRI-BETAPRONATE CREAM 30 GM</t>
   </si>
   <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
@@ -2017,7 +2026,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2097,10 +2106,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2142,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2159,11 +2168,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,7 +2217,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2225,11 +2234,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>30</v>
@@ -2248,13 +2257,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2262,10 +2271,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2274,31 +2283,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2380,7 +2389,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,7 +2399,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2406,7 +2415,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2439,7 +2448,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,7 +2547,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2588,14 +2597,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,31 +2712,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,31 +2745,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,11 +2894,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -2901,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,11 +2993,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3363,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,7 +3504,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3512,11 +3521,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3528,31 +3537,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,31 +3570,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>227</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,7 +3768,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>230</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,7 +3801,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>233</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3875,49 +3884,115 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4551.4650000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>235</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>194</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>50</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>24</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>236</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c t="s" r="Q84" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>237</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>27</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>50</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>210</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4631.4650000000001</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>238</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>239</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>240</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4311,10 +4386,20 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -725,7 +725,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:07 PM</t>
+    <t>Friday, 15 August, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -152,10 +152,13 @@
     <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>53.00</t>
   </si>
   <si>
-    <t>106.0000</t>
+    <t>212.0000</t>
   </si>
   <si>
     <t>CIKATRO LOTION</t>
@@ -368,6 +371,15 @@
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -491,9 +503,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>23.0000</t>
   </si>
   <si>
@@ -593,9 +602,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -611,6 +617,18 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8393:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>WHITON CREAM 60 GM</t>
   </si>
   <si>
@@ -695,13 +713,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>56.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -725,7 +737,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:09 PM</t>
+    <t>Friday, 15 August, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,7 +1675,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1673,14 +1685,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1689,7 +1701,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1702,15 +1714,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>30</v>
@@ -1722,7 +1734,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1739,11 +1751,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1772,11 +1784,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1788,7 +1800,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1805,11 +1817,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1821,14 +1833,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1838,14 +1850,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1854,7 +1866,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1871,11 +1883,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1887,7 +1899,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1904,11 +1916,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1920,7 +1932,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1937,11 +1949,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1953,7 +1965,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1970,11 +1982,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,11 +2015,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2019,14 +2031,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2052,7 +2064,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2073,10 +2085,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,11 +2114,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2118,7 +2130,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2135,11 +2147,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,11 +2180,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2184,7 +2196,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2201,11 +2213,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2217,7 +2229,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2234,11 +2246,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>30</v>
@@ -2250,7 +2262,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2267,11 +2279,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2283,7 +2295,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2296,15 +2308,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2337,10 +2349,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,7 +2361,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2366,11 +2378,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2382,7 +2394,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2415,7 +2427,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2432,11 +2444,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,7 +2493,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2498,14 +2510,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,7 +2592,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2708,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,31 +2757,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,31 +2790,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,7 +2939,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3016,7 +3028,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,11 +3038,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3082,7 +3094,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3125,11 +3137,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3148,7 +3160,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3181,7 +3193,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3236,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3247,7 +3259,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3264,7 +3276,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3292,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3368,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3379,7 +3391,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3412,7 +3424,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3478,7 +3490,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3500,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,7 +3582,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3603,31 +3615,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,31 +3648,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,31 +3681,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,31 +3714,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3748,15 +3760,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3768,31 +3780,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3808,24 +3820,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,7 +3846,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3847,18 +3859,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>233</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,7 +3879,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3880,18 +3892,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3907,24 +3919,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>40</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3933,7 +3945,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3946,53 +3958,119 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4631.4650000000001</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>238</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>239</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>47</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>51</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>24</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>27</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>51</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>216</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4849.4650000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>242</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>243</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>244</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4396,10 +4474,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -488,6 +488,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -644,9 +653,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -713,9 +719,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -737,7 +740,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:14 PM</t>
+    <t>Friday, 15 August, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2929,7 +2932,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2972,11 +2975,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -2995,7 +2998,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3041,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3061,7 +3064,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3127,7 +3130,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,14 +3140,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3193,7 +3196,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3226,7 +3229,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,11 +3272,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3292,7 +3295,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3309,7 +3312,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3325,7 +3328,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3338,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3424,7 +3427,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3457,7 +3460,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3556,7 +3559,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,14 +3569,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3582,14 +3585,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3606,7 +3609,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3622,7 +3625,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,14 +3635,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,31 +3684,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3797,7 +3800,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3820,7 +3823,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3879,7 +3882,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3945,7 +3948,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3985,7 +3988,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4028,49 +4031,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>242</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>27</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>51</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>218</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>125</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4849.4650000000001</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>242</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c t="s" r="Q88" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4905.4650000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>243</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>244</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>245</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4484,10 +4520,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -302,9 +311,6 @@
     <t>5:12</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>11.5200</t>
   </si>
   <si>
@@ -395,7 +401,7 @@
     <t>38.00</t>
   </si>
   <si>
-    <t>38.0000</t>
+    <t>76.0000</t>
   </si>
   <si>
     <t>IROLAMIN 30 CAPS.</t>
@@ -470,6 +476,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -650,9 +668,6 @@
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -740,7 +755,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:18 PM</t>
+    <t>Friday, 15 August, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2008,7 +2023,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2107,7 +2122,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2140,7 +2155,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2173,7 +2188,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2265,7 +2280,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2305,13 +2320,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2319,10 +2334,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2331,31 +2346,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2437,7 +2452,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2447,7 +2462,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2463,7 +2478,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2496,7 +2511,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2529,7 +2544,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2628,7 +2643,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2793,31 +2808,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2826,31 +2841,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3196,7 +3211,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3229,7 +3244,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3262,7 +3277,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,11 +3287,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3361,7 +3376,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,11 +3386,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3387,7 +3402,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3404,11 +3419,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3493,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3701,11 +3716,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3717,31 +3732,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3757,24 +3772,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3866,7 +3881,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3889,7 +3904,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,14 +3947,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>217</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3948,7 +3963,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3965,14 +3980,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>238</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3981,7 +3996,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -3998,14 +4013,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4031,14 +4046,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4047,7 +4062,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4064,49 +4079,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4905.4650000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>243</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>244</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>245</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>47</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>51</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>24</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>247</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>27</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>51</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>223</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5137.4650000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>248</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>249</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>250</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4525,10 +4606,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -530,60 +530,60 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>17:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:19 PM</t>
+    <t>Friday, 15 August, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3112,7 +3112,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3126,10 +3126,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3155,11 +3155,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>113</v>
@@ -3237,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3270,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3640,7 +3640,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,11 +3782,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>243</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>5137.4650000000001</v>
+        <v>5160.4650000000001</v>
       </c>
       <c r="Q91" s="13"/>
     </row>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>22.0000</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -1858,7 +1867,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2023,7 +2032,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2188,7 +2197,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,7 +2273,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2287,7 +2296,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2304,7 +2313,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2334,7 +2343,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2346,31 +2355,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2386,24 +2395,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2452,7 +2461,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,7 +2504,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2511,7 +2520,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2568,7 +2577,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2601,7 +2610,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2617,7 +2626,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2634,7 +2643,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,7 +2709,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2716,7 +2725,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2733,7 +2742,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2766,7 +2775,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2799,7 +2808,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2832,7 +2841,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2848,13 +2857,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2865,7 +2874,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2881,21 +2890,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2931,7 +2940,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,11 +3065,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,11 +3098,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3112,7 +3121,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3178,7 +3187,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,11 +3197,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3287,11 +3296,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3310,7 +3319,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,7 +3395,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3409,7 +3418,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3426,7 +3435,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,11 +3527,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3541,7 +3550,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3574,7 +3583,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3723,7 +3732,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3739,7 +3748,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,31 +3807,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,7 +3956,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -3970,7 +3979,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4029,7 +4038,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>47</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4145,49 +4154,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5160.4650000000001</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>248</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>249</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>250</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>27</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>51</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>226</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5176.4650000000001</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>251</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>252</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>253</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4616,10 +4658,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -764,7 +764,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:20 PM</t>
+    <t>Friday, 15 August, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -341,21 +350,15 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>FATROXIM 550 MG 30TAB</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>118.8000</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -764,7 +767,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:28 PM</t>
+    <t>Friday, 15 August, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2197,7 +2200,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2207,14 +2210,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2230,7 +2233,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2263,7 +2266,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2273,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2296,7 +2299,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2306,7 +2309,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2329,7 +2332,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2346,7 +2349,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2376,7 +2379,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2388,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2405,14 +2408,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2421,14 +2424,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2438,14 +2441,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2471,14 +2474,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,11 +2507,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2537,7 +2540,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2586,7 +2589,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2603,14 +2606,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2636,14 +2639,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2652,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2669,14 +2672,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2685,14 +2688,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2718,7 +2721,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,14 +2837,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2850,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2867,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,31 +2886,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2916,28 +2919,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -2949,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3002,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3022,7 +3025,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,14 +3035,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3048,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3081,14 +3084,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3098,11 +3101,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3121,7 +3124,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,11 +3134,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3164,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3187,7 +3190,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3197,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3213,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3230,11 +3233,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3253,7 +3256,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,14 +3299,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3312,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,11 +3332,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3378,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,14 +3398,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3461,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3517,7 +3520,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3550,7 +3553,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,14 +3596,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3626,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3649,7 +3652,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,14 +3678,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3708,14 +3711,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3774,14 +3777,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3791,14 +3794,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3807,14 +3810,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3824,14 +3827,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3847,24 +3850,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3906,14 +3909,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3989,11 +3992,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4038,7 +4041,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>225</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4104,7 +4107,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4144,7 +4147,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4187,49 +4190,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5176.4650000000001</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>251</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>27</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>51</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>227</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5187.665</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>252</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
         <v>253</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>254</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4663,10 +4699,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -767,7 +779,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:44 PM</t>
+    <t>Friday, 15 August, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,7 +1684,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1682,11 +1694,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1715,14 +1727,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1738,13 +1750,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1755,7 +1767,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1777,15 +1789,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1797,14 +1809,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1814,14 +1826,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1830,7 +1842,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1847,11 +1859,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1863,7 +1875,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1880,11 +1892,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1920,7 +1932,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1953,7 +1965,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1962,14 +1974,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1979,14 +1991,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1995,14 +2007,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2012,11 +2024,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2028,7 +2040,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2045,11 +2057,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2078,14 +2090,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2094,14 +2106,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2118,7 +2130,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2134,7 +2146,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,14 +2156,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2160,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2193,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2247,10 +2259,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,14 +2288,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,11 +2354,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,14 +2387,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2391,28 +2403,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2424,28 +2436,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,14 +2486,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2497,7 +2509,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,11 +2552,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2589,7 +2601,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2606,11 +2618,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2622,7 +2634,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,14 +2717,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,7 +2766,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,14 +2849,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2886,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2919,31 +2931,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2952,20 +2964,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2992,7 +3004,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3084,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3113,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,11 +3146,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,11 +3179,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,11 +3278,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3282,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3315,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3336,10 +3348,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3381,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3410,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3414,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,11 +3476,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3480,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,11 +3608,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3768,7 +3780,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3784,7 +3796,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,31 +3888,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3922,18 +3934,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,31 +3954,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3982,21 +3994,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4008,28 +4020,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>30</v>
@@ -4041,31 +4053,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4074,7 +4086,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4087,18 +4099,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>226</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4107,7 +4119,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4120,18 +4132,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4140,7 +4152,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4153,18 +4165,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>47</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4173,31 +4185,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4206,66 +4218,99 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5187.665</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>252</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>253</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>254</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>255</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>27</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>55</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>231</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5195.585</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>256</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>257</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>258</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4704,10 +4749,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>42.9000</t>
+    <t>85.8000</t>
   </si>
   <si>
     <t>CLEAREST 14 CAPS</t>
@@ -374,105 +374,114 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>IRUXOL TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FROST TOPICAL SPRAY 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
@@ -482,6 +491,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -491,6 +509,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -539,6 +566,9 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -554,6 +584,15 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
@@ -566,6 +605,15 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -581,9 +629,6 @@
     <t>17:1</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -605,9 +650,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -653,6 +695,12 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -662,9 +710,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>50.4900</t>
   </si>
   <si>
@@ -707,9 +752,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -779,7 +821,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 10:45 PM</t>
+    <t>Friday, 15 August, 2025 11:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1849,7 +1891,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1866,7 +1908,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2509,7 +2551,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2523,10 +2565,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2535,7 +2577,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2552,11 +2594,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2568,7 +2610,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2585,7 +2627,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2601,7 +2643,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2618,7 +2660,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2634,7 +2676,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2651,11 +2693,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2667,7 +2709,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2684,11 +2726,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2700,7 +2742,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2717,11 +2759,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2733,7 +2775,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2750,11 +2792,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2766,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,11 +2825,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2799,7 +2841,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2816,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2898,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2938,7 +2980,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2955,7 +2997,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2971,13 +3013,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3004,7 +3046,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,28 +3105,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3096,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,7 +3204,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3179,11 +3221,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3195,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3254,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,14 +3270,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3287,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,14 +3303,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,11 +3353,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3327,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3419,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3400,7 +3442,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,7 +3452,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3433,7 +3475,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3466,7 +3508,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3584,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,11 +3617,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3598,7 +3640,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,11 +3683,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3657,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,11 +3716,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3697,7 +3739,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,14 +3815,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,14 +3831,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3806,14 +3848,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3839,11 +3881,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3855,14 +3897,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3914,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,14 +3930,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3905,11 +3947,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -3921,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,31 +4062,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,28 +4095,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4086,31 +4128,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4119,7 +4161,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4132,18 +4174,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,14 +4194,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4169,14 +4211,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>251</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4202,14 +4244,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4218,14 +4260,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4235,14 +4277,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4251,14 +4293,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4268,49 +4310,280 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5195.585</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>256</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
         <v>257</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>55</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>148</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>258</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>259</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>27</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>55</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>260</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>262</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>27</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>55</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>236</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>263</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>27</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>55</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>264</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>266</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>27</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>55</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>246</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>267</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>51</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>55</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>24</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>269</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>27</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>55</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>246</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5567.1549999999997</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>270</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>271</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>272</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4754,10 +5027,45 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -473,207 +473,213 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>2:4</t>
+  </si>
+  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TRI-BETAPRONATE CREAM 30 GM</t>
+  </si>
+  <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>OPLEX N PLUS 10 SUPP.</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>17:1</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>TRI-BETAPRONATE CREAM 30 GM</t>
-  </si>
-  <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
@@ -752,6 +758,9 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -821,7 +830,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 11:10 PM</t>
+    <t>Friday, 15 August, 2025 11:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2947,7 +2956,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>156</v>
@@ -3591,7 +3600,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3654,7 +3663,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3666,7 +3675,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3683,11 +3692,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3699,7 +3708,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3732,7 +3741,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3749,11 +3758,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3765,7 +3774,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3798,7 +3807,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3831,7 +3840,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3852,7 +3861,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3885,7 +3894,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3897,7 +3906,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3930,7 +3939,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3984,7 +3993,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3996,7 +4005,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4017,7 +4026,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4050,10 +4059,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4095,7 +4104,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4112,11 +4121,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4128,7 +4137,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4149,7 +4158,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>74</v>
@@ -4161,7 +4170,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,7 +4220,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>30</v>
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,7 +4352,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4366,7 +4375,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>245</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4425,7 +4434,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>51</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4541,49 +4550,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>272</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>27</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>55</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>248</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>134</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5567.1549999999997</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>270</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>271</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>272</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5629.1549999999997</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>273</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>274</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>275</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5062,10 +5104,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -338,10 +338,10 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>5:12</t>
-  </si>
-  <si>
-    <t>11.5200</t>
+    <t>5:11</t>
+  </si>
+  <si>
+    <t>23.0400</t>
   </si>
   <si>
     <t>ESMOPROTON 40 MG 14 CAPS</t>
@@ -470,6 +470,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60 MG 6 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>14.0800</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -830,7 +842,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 11:28 PM</t>
+    <t>Friday, 15 August, 2025 11:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2412,7 +2424,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2970,10 +2982,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2989,7 +3001,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,14 +3011,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,11 +3044,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3114,28 +3126,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3147,20 +3159,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3187,7 +3199,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,14 +3275,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3312,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3473,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3477,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,11 +3572,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3616,7 +3628,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3902,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,11 +4034,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4111,7 +4123,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,31 +4215,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4342,7 +4354,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>30</v>
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,14 +4430,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4434,7 +4446,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>247</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4467,7 +4479,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4500,7 +4512,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>51</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4583,49 +4595,82 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>27</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>55</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>252</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>134</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5629.1549999999997</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>273</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>274</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>275</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5654.7550000000001</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>277</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>278</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>279</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5109,10 +5154,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,6 +44,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>3FLY 300 TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
@@ -59,9 +74,6 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>CIKATRO LOTION</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
@@ -383,9 +392,6 @@
     <t>FROST TOPICAL SPRAY 100 ML</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>140.0000</t>
   </si>
   <si>
@@ -837,6 +843,9 @@
   </si>
   <si>
     <t>96.0000</t>
+  </si>
+  <si>
+    <t>مسك الرمان</t>
   </si>
   <si>
     <t xml:space="preserve">مشط خشب </t>
@@ -1500,7 +1509,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1509,20 +1518,20 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -1533,7 +1542,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1542,31 +1551,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1575,31 +1584,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1608,20 +1617,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1632,7 +1641,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1641,31 +1650,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1687,7 +1696,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1698,7 +1707,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1720,7 +1729,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1731,7 +1740,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1740,31 +1749,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1780,24 +1789,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1806,31 +1815,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1846,13 +1855,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1863,7 +1872,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1879,7 +1888,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1896,7 +1905,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1912,13 +1921,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1929,7 +1938,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1945,13 +1954,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1962,7 +1971,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1978,13 +1987,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1995,7 +2004,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2011,24 +2020,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2037,31 +2046,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2077,13 +2086,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2094,7 +2103,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2110,13 +2119,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2127,7 +2136,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2143,13 +2152,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2160,7 +2169,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2176,13 +2185,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2193,7 +2202,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2209,24 +2218,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,31 +2244,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,31 +2277,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2308,24 +2317,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2341,24 +2350,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2374,24 +2383,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2407,24 +2416,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2440,24 +2449,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2473,13 +2482,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2490,7 +2499,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2506,24 +2515,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,31 +2574,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2605,24 +2614,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2638,24 +2647,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2671,24 +2680,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2697,31 +2706,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2730,31 +2739,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2763,31 +2772,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,31 +2805,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2829,31 +2838,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,31 +2871,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2895,31 +2904,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2928,31 +2937,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,31 +2970,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,31 +3003,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,31 +3036,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,31 +3069,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,31 +3102,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,31 +3135,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3159,31 +3168,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,31 +3234,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,31 +3267,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,31 +3300,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3331,24 +3340,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,31 +3366,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,31 +3399,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,31 +3432,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,31 +3465,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,31 +3498,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,31 +3531,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,31 +3564,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,31 +3597,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,31 +3630,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,31 +3663,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3700,18 +3709,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,31 +3729,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,31 +3762,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,31 +3795,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,31 +3828,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,31 +3861,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,31 +3894,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3925,24 +3934,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,31 +3960,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,31 +3993,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,31 +4026,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4057,13 +4066,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4074,7 +4083,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4090,24 +4099,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4123,24 +4132,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,31 +4158,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4191,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4222,24 +4231,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,31 +4257,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,31 +4290,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,31 +4323,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,31 +4356,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,31 +4389,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4420,24 +4429,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4446,31 +4455,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4479,31 +4488,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>251</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4512,31 +4521,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4545,31 +4554,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>51</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4578,31 +4587,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4618,59 +4627,125 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5654.7550000000001</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>277</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>278</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>22</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>205</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>279</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>31</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>254</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5754.7550000000001</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>280</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>281</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>282</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5159,10 +5234,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -851,7 +851,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 11:30 PM</t>
+    <t>Friday, 15 August, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -62,465 +62,468 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>-27.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
+    <t>CIKATRO LOTION</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:11</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>IRUXOL TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>JOYPOX 60 MG 6 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>14.0800</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>-27.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>212.0000</t>
-  </si>
-  <si>
-    <t>CIKATRO LOTION</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>85.8000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>COLD CONTROL 20 TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>5:11</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 300MG 30CAP</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>FROST TOPICAL SPRAY 100 ML</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>IRUXOL TOPICAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>JOYPOX 60 MG 6 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>14.0800</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -680,6 +683,9 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -827,6 +833,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>31:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -851,7 +860,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 11:40 PM</t>
+    <t>Friday, 15 August, 2025 11:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1542,7 +1551,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1605,7 +1614,7 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1799,11 +1808,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1832,11 +1841,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1898,14 +1907,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1997,11 +2006,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2112,7 +2121,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2129,11 +2138,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,11 +2171,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2331,10 +2340,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2397,10 +2406,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2433,7 +2442,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2515,7 +2524,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2532,7 +2541,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2595,10 +2604,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2614,7 +2623,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,7 +2633,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2647,7 +2656,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2664,7 +2673,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2694,10 +2703,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2713,7 +2722,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2727,10 +2736,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2763,7 +2772,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2779,7 +2788,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2812,7 +2821,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2862,7 +2871,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2895,7 +2904,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2911,7 +2920,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2928,7 +2937,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2961,7 +2970,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2977,7 +2986,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2994,7 +3003,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3057,7 +3066,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>162</v>
@@ -3076,7 +3085,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3093,7 +3102,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3126,7 +3135,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3324,7 +3333,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,7 +3342,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3354,7 +3363,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3392,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3519,7 +3528,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,11 +3557,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,7 +3722,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,11 +3755,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,14 +3936,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3967,7 +3976,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4099,7 +4108,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,7 +4118,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4132,7 +4141,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4165,7 +4174,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4264,7 +4273,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,31 +4299,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,14 +4382,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4462,7 +4471,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4505,14 +4514,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>253</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,11 +4580,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>274</v>
@@ -4594,7 +4603,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4604,14 +4613,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4703,49 +4712,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>33</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>256</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>136</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5754.7550000000001</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>280</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>281</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>282</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5866.7550000000001</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>283</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>284</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>285</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5244,10 +5286,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -860,7 +860,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 11:51 PM</t>
+    <t>Friday, 15 August, 2025 11:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:08 AM</t>
+    <t>Saturday, 16 August, 2025 9:09 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:09 AM</t>
+    <t>Saturday, 16 August, 2025 9:11 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:11 AM</t>
+    <t>Saturday, 16 August, 2025 9:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:41 AM</t>
+    <t>Saturday, 16 August, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:42 AM</t>
+    <t>Saturday, 16 August, 2025 9:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:44 AM</t>
+    <t>Saturday, 16 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:01 AM</t>
+    <t>Saturday, 16 August, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:04 AM</t>
+    <t>Saturday, 16 August, 2025 10:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:08 AM</t>
+    <t>Saturday, 16 August, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:22 AM</t>
+    <t>Saturday, 16 August, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:27 AM</t>
+    <t>Saturday, 16 August, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:30 AM</t>
+    <t>Saturday, 16 August, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:50 AM</t>
+    <t>Saturday, 16 August, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:54 AM</t>
+    <t>Saturday, 16 August, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:57 AM</t>
+    <t>Saturday, 16 August, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:05 AM</t>
+    <t>Saturday, 16 August, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:07 AM</t>
+    <t>Saturday, 16 August, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:13 AM</t>
+    <t>Saturday, 16 August, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:14 AM</t>
+    <t>Saturday, 16 August, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:15 AM</t>
+    <t>Saturday, 16 August, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:17 AM</t>
+    <t>Saturday, 16 August, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:37 AM</t>
+    <t>Saturday, 16 August, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:39 AM</t>
+    <t>Saturday, 16 August, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:40 AM</t>
+    <t>Saturday, 16 August, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 12:26 PM</t>
+    <t>Saturday, 16 August, 2025 12:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 12:31 PM</t>
+    <t>Saturday, 16 August, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 12:32 PM</t>
+    <t>Saturday, 16 August, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 1:03 PM</t>
+    <t>Saturday, 16 August, 2025 1:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 1:04 PM</t>
+    <t>Saturday, 16 August, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 1:12 PM</t>
+    <t>Saturday, 16 August, 2025 1:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 1:52 PM</t>
+    <t>Saturday, 16 August, 2025 2:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 2:23 PM</t>
+    <t>Saturday, 16 August, 2025 2:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 2:31 PM</t>
+    <t>Saturday, 16 August, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 3:12 PM</t>
+    <t>Saturday, 16 August, 2025 4:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 4:16 PM</t>
+    <t>Saturday, 16 August, 2025 4:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 4:20 PM</t>
+    <t>Saturday, 16 August, 2025 4:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 4:47 PM</t>
+    <t>Saturday, 16 August, 2025 4:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 4:49 PM</t>
+    <t>Saturday, 16 August, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 5:43 PM</t>
+    <t>Saturday, 16 August, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 5:44 PM</t>
+    <t>Saturday, 16 August, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 5:59 PM</t>
+    <t>Saturday, 16 August, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 6:01 PM</t>
+    <t>Saturday, 16 August, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 6:15 PM</t>
+    <t>Saturday, 16 August, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 6:19 PM</t>
+    <t>Saturday, 16 August, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 6:35 PM</t>
+    <t>Saturday, 16 August, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:01 PM</t>
+    <t>Saturday, 16 August, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:03 PM</t>
+    <t>Saturday, 16 August, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:05 PM</t>
+    <t>Saturday, 16 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:10 PM</t>
+    <t>Saturday, 16 August, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:20 PM</t>
+    <t>Saturday, 16 August, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:21 PM</t>
+    <t>Saturday, 16 August, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:30 PM</t>
+    <t>Saturday, 16 August, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:48 PM</t>
+    <t>Saturday, 16 August, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 7:59 PM</t>
+    <t>Saturday, 16 August, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:02 PM</t>
+    <t>Saturday, 16 August, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:03 PM</t>
+    <t>Saturday, 16 August, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:04 PM</t>
+    <t>Saturday, 16 August, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:05 PM</t>
+    <t>Saturday, 16 August, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:06 PM</t>
+    <t>Saturday, 16 August, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:08 PM</t>
+    <t>Saturday, 16 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:22 PM</t>
+    <t>Saturday, 16 August, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-15_00-00.xlsx
+++ b/DaySale_2025-08-15_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:27 PM</t>
+    <t>Saturday, 16 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
